--- a/Excel/PromptTestConfig.xlsx
+++ b/Excel/PromptTestConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D8679-C8DC-4CB3-BDB6-4EDB5AB367AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E91700-B488-4BB4-AE8B-B0D4FC5E1C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>6,7,8,9,10,J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9,10|7,8,9,10,J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,4,5,5,7,7,7,8,9,9,9,J,J,Q,K,K,2,2,2,大王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J16"/>
+  <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1050,33 @@
       <c r="I16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/PromptTestConfig.xlsx
+++ b/Excel/PromptTestConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E91700-B488-4BB4-AE8B-B0D4FC5E1C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAD7E0-6F22-4FCC-98C5-3DADD1E7DFA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PromptTestProto" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>3,4,4,5,5,7,7,7,8,9,9,9,J,J,Q,K,K,2,2,2,大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,4,4,4,5,5,5,7,7,8,9,10,J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,4,4,5,5,5,6,6,6,8,9,10,J,Q,Q,Q,K,K,A,2,小王,大王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J17"/>
+  <dimension ref="C3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -691,9 +703,9 @@
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="32.5" style="1" customWidth="1"/>
@@ -1078,6 +1090,30 @@
       </c>
       <c r="J17" s="3"/>
     </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
